--- a/年终总结/2017工作计划--系统研发部.xlsx
+++ b/年终总结/2017工作计划--系统研发部.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="工作思路" sheetId="1" r:id="rId1"/>
@@ -495,10 +495,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>医疗信息化云平台搭建</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>于2017年11月30日医疗信息化云平台搭建</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -516,6 +512,10 @@
   </si>
   <si>
     <t>4.12月31日前部署测试完成的系统，并根据使用反馈进行优化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HR系统</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1078,29 +1078,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2404,10 +2404,10 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
@@ -2422,8 +2422,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4667250" y="4552949"/>
-          <a:ext cx="781049" cy="116473"/>
+          <a:off x="5133975" y="4524375"/>
+          <a:ext cx="314324" cy="145047"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3024,7 +3024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -3196,10 +3196,10 @@
       </c>
     </row>
     <row r="2" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B2" s="46">
+      <c r="B2" s="44">
         <v>1</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="47" t="s">
         <v>70</v>
       </c>
       <c r="D2" s="9" t="s">
@@ -3207,38 +3207,38 @@
       </c>
     </row>
     <row r="3" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B3" s="47"/>
-      <c r="C3" s="50"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="48"/>
       <c r="D3" s="9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B4" s="47"/>
-      <c r="C4" s="50"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="48"/>
       <c r="D4" s="9" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B5" s="47"/>
-      <c r="C5" s="50"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="48"/>
       <c r="D5" s="9" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B6" s="48"/>
-      <c r="C6" s="51"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="49"/>
       <c r="D6" s="9" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B7" s="46">
+      <c r="B7" s="44">
         <v>2</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="47" t="s">
         <v>71</v>
       </c>
       <c r="D7" s="9" t="s">
@@ -3246,38 +3246,38 @@
       </c>
     </row>
     <row r="8" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B8" s="47"/>
-      <c r="C8" s="50"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="48"/>
       <c r="D8" s="9" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B9" s="47"/>
-      <c r="C9" s="50"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="48"/>
       <c r="D9" s="9" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B10" s="47"/>
-      <c r="C10" s="50"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="48"/>
       <c r="D10" s="9" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B11" s="48"/>
-      <c r="C11" s="51"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="49"/>
       <c r="D11" s="9" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B12" s="45">
+      <c r="B12" s="51">
         <v>3</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="50" t="s">
         <v>73</v>
       </c>
       <c r="D12" s="9" t="s">
@@ -3285,31 +3285,31 @@
       </c>
     </row>
     <row r="13" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B13" s="45"/>
-      <c r="C13" s="44"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="50"/>
       <c r="D13" s="9" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B14" s="45"/>
-      <c r="C14" s="44"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="50"/>
       <c r="D14" s="9" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B15" s="45"/>
-      <c r="C15" s="44"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="50"/>
       <c r="D15" s="9" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B16" s="45">
+      <c r="B16" s="51">
         <v>4</v>
       </c>
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="50" t="s">
         <v>75</v>
       </c>
       <c r="D16" s="9" t="s">
@@ -3317,31 +3317,31 @@
       </c>
     </row>
     <row r="17" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B17" s="45"/>
-      <c r="C17" s="44"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="50"/>
       <c r="D17" s="9" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B18" s="45"/>
-      <c r="C18" s="44"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="50"/>
       <c r="D18" s="9" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B19" s="45"/>
-      <c r="C19" s="44"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="50"/>
       <c r="D19" s="9" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B20" s="45">
+      <c r="B20" s="51">
         <v>5</v>
       </c>
-      <c r="C20" s="44" t="s">
+      <c r="C20" s="50" t="s">
         <v>74</v>
       </c>
       <c r="D20" s="9" t="s">
@@ -3349,24 +3349,24 @@
       </c>
     </row>
     <row r="21" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B21" s="45"/>
-      <c r="C21" s="44"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="50"/>
       <c r="D21" s="9" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B22" s="45"/>
-      <c r="C22" s="44"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="50"/>
       <c r="D22" s="9" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B23" s="45">
+      <c r="B23" s="51">
         <v>6</v>
       </c>
-      <c r="C23" s="44" t="s">
+      <c r="C23" s="50" t="s">
         <v>76</v>
       </c>
       <c r="D23" s="9" t="s">
@@ -3374,65 +3374,60 @@
       </c>
     </row>
     <row r="24" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B24" s="45"/>
-      <c r="C24" s="44"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="50"/>
       <c r="D24" s="9" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B25" s="45"/>
-      <c r="C25" s="44"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="50"/>
       <c r="D25" s="9" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B26" s="45"/>
-      <c r="C26" s="44"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="50"/>
       <c r="D26" s="9" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B27" s="45">
+      <c r="B27" s="51">
         <v>7</v>
       </c>
-      <c r="C27" s="44" t="s">
+      <c r="C27" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="D27" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="D27" s="9" t="s">
+    </row>
+    <row r="28" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B28" s="51"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="9" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B28" s="45"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="9" t="s">
+    <row r="29" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B29" s="51"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="9" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B29" s="45"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="9" t="s">
+    <row r="30" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B30" s="51"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="9" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B30" s="45"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="9" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="C12:C15"/>
     <mergeCell ref="C16:C19"/>
     <mergeCell ref="C20:C22"/>
     <mergeCell ref="C23:C26"/>
@@ -3442,6 +3437,11 @@
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="B23:B26"/>
     <mergeCell ref="B27:B30"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="C12:C15"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3453,9 +3453,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4052,7 +4052,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A27" s="52" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B27" s="15" t="s">
         <v>52</v>

--- a/年终总结/2017工作计划--系统研发部.xlsx
+++ b/年终总结/2017工作计划--系统研发部.xlsx
@@ -515,7 +515,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>HR系统</t>
+    <t>人力资源管理系统系统</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1078,6 +1078,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1095,12 +1101,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3196,10 +3196,10 @@
       </c>
     </row>
     <row r="2" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B2" s="44">
+      <c r="B2" s="46">
         <v>1</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="49" t="s">
         <v>70</v>
       </c>
       <c r="D2" s="9" t="s">
@@ -3207,38 +3207,38 @@
       </c>
     </row>
     <row r="3" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B3" s="45"/>
-      <c r="C3" s="48"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B4" s="45"/>
-      <c r="C4" s="48"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="9" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B5" s="45"/>
-      <c r="C5" s="48"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="50"/>
       <c r="D5" s="9" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B6" s="46"/>
-      <c r="C6" s="49"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="51"/>
       <c r="D6" s="9" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B7" s="44">
+      <c r="B7" s="46">
         <v>2</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="49" t="s">
         <v>71</v>
       </c>
       <c r="D7" s="9" t="s">
@@ -3246,38 +3246,38 @@
       </c>
     </row>
     <row r="8" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B8" s="45"/>
-      <c r="C8" s="48"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="50"/>
       <c r="D8" s="9" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B9" s="45"/>
-      <c r="C9" s="48"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="50"/>
       <c r="D9" s="9" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B10" s="45"/>
-      <c r="C10" s="48"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="50"/>
       <c r="D10" s="9" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B11" s="46"/>
-      <c r="C11" s="49"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="51"/>
       <c r="D11" s="9" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B12" s="51">
+      <c r="B12" s="45">
         <v>3</v>
       </c>
-      <c r="C12" s="50" t="s">
+      <c r="C12" s="44" t="s">
         <v>73</v>
       </c>
       <c r="D12" s="9" t="s">
@@ -3285,31 +3285,31 @@
       </c>
     </row>
     <row r="13" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B13" s="51"/>
-      <c r="C13" s="50"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="44"/>
       <c r="D13" s="9" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B14" s="51"/>
-      <c r="C14" s="50"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="44"/>
       <c r="D14" s="9" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B15" s="51"/>
-      <c r="C15" s="50"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="44"/>
       <c r="D15" s="9" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B16" s="51">
+      <c r="B16" s="45">
         <v>4</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="44" t="s">
         <v>75</v>
       </c>
       <c r="D16" s="9" t="s">
@@ -3317,31 +3317,31 @@
       </c>
     </row>
     <row r="17" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B17" s="51"/>
-      <c r="C17" s="50"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="44"/>
       <c r="D17" s="9" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B18" s="51"/>
-      <c r="C18" s="50"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="44"/>
       <c r="D18" s="9" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B19" s="51"/>
-      <c r="C19" s="50"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="44"/>
       <c r="D19" s="9" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B20" s="51">
+      <c r="B20" s="45">
         <v>5</v>
       </c>
-      <c r="C20" s="50" t="s">
+      <c r="C20" s="44" t="s">
         <v>74</v>
       </c>
       <c r="D20" s="9" t="s">
@@ -3349,24 +3349,24 @@
       </c>
     </row>
     <row r="21" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B21" s="51"/>
-      <c r="C21" s="50"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="44"/>
       <c r="D21" s="9" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B22" s="51"/>
-      <c r="C22" s="50"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="44"/>
       <c r="D22" s="9" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B23" s="51">
+      <c r="B23" s="45">
         <v>6</v>
       </c>
-      <c r="C23" s="50" t="s">
+      <c r="C23" s="44" t="s">
         <v>76</v>
       </c>
       <c r="D23" s="9" t="s">
@@ -3374,31 +3374,31 @@
       </c>
     </row>
     <row r="24" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B24" s="51"/>
-      <c r="C24" s="50"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="44"/>
       <c r="D24" s="9" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B25" s="51"/>
-      <c r="C25" s="50"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="44"/>
       <c r="D25" s="9" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B26" s="51"/>
-      <c r="C26" s="50"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="44"/>
       <c r="D26" s="9" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B27" s="51">
+      <c r="B27" s="45">
         <v>7</v>
       </c>
-      <c r="C27" s="50" t="s">
+      <c r="C27" s="44" t="s">
         <v>119</v>
       </c>
       <c r="D27" s="9" t="s">
@@ -3406,28 +3406,33 @@
       </c>
     </row>
     <row r="28" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B28" s="51"/>
-      <c r="C28" s="50"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="44"/>
       <c r="D28" s="9" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="29" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B29" s="51"/>
-      <c r="C29" s="50"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="44"/>
       <c r="D29" s="9" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="30" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B30" s="51"/>
-      <c r="C30" s="50"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="44"/>
       <c r="D30" s="9" t="s">
         <v>123</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="C12:C15"/>
     <mergeCell ref="C16:C19"/>
     <mergeCell ref="C20:C22"/>
     <mergeCell ref="C23:C26"/>
@@ -3437,11 +3442,6 @@
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="B23:B26"/>
     <mergeCell ref="B27:B30"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="C12:C15"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3455,7 +3455,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I33" sqref="I33"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/年终总结/2017工作计划--系统研发部.xlsx
+++ b/年终总结/2017工作计划--系统研发部.xlsx
@@ -1078,29 +1078,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1359,14 +1359,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>28576</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>28573</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>390526</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>400051</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>154573</xdr:rowOff>
     </xdr:to>
@@ -1377,7 +1377,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4581526" y="904873"/>
+          <a:off x="5095876" y="1076323"/>
           <a:ext cx="361950" cy="126000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1414,16 +1414,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>145050</xdr:rowOff>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1432,63 +1432,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5029200" y="1066800"/>
-          <a:ext cx="771525" cy="126000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>154572</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="矩形 11"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6000750" y="1428749"/>
-          <a:ext cx="314325" cy="116473"/>
+          <a:off x="5543550" y="1238249"/>
+          <a:ext cx="771525" cy="142875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1525,7 +1470,62 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>135522</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="矩形 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6391275" y="1409699"/>
+          <a:ext cx="314325" cy="116473"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
@@ -1533,7 +1533,7 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>154575</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1542,8 +1542,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6410325" y="1590675"/>
-          <a:ext cx="733425" cy="126000"/>
+          <a:off x="6819900" y="1590675"/>
+          <a:ext cx="323850" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2404,14 +2404,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>390524</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>371474</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>145047</xdr:rowOff>
     </xdr:to>
@@ -2422,7 +2422,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5133975" y="4524375"/>
+          <a:off x="6400800" y="4524375"/>
           <a:ext cx="314324" cy="145047"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2459,14 +2459,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>57151</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>400051</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
@@ -2477,7 +2477,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5543551" y="4724400"/>
+          <a:off x="6810376" y="4724400"/>
           <a:ext cx="342900" cy="123824"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2514,16 +2514,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>57151</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>57152</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>390526</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2532,8 +2532,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5972176" y="4886325"/>
-          <a:ext cx="2038349" cy="133349"/>
+          <a:off x="7258052" y="4905375"/>
+          <a:ext cx="1190624" cy="123824"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2569,8 +2569,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
@@ -2578,7 +2578,7 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>145050</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2587,8 +2587,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8086725" y="5057775"/>
-          <a:ext cx="1219200" cy="126000"/>
+          <a:off x="8534401" y="5057775"/>
+          <a:ext cx="771524" cy="123825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3196,10 +3196,10 @@
       </c>
     </row>
     <row r="2" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B2" s="46">
+      <c r="B2" s="44">
         <v>1</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="47" t="s">
         <v>70</v>
       </c>
       <c r="D2" s="9" t="s">
@@ -3207,38 +3207,38 @@
       </c>
     </row>
     <row r="3" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B3" s="47"/>
-      <c r="C3" s="50"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="48"/>
       <c r="D3" s="9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B4" s="47"/>
-      <c r="C4" s="50"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="48"/>
       <c r="D4" s="9" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B5" s="47"/>
-      <c r="C5" s="50"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="48"/>
       <c r="D5" s="9" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B6" s="48"/>
-      <c r="C6" s="51"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="49"/>
       <c r="D6" s="9" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B7" s="46">
+      <c r="B7" s="44">
         <v>2</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="47" t="s">
         <v>71</v>
       </c>
       <c r="D7" s="9" t="s">
@@ -3246,38 +3246,38 @@
       </c>
     </row>
     <row r="8" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B8" s="47"/>
-      <c r="C8" s="50"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="48"/>
       <c r="D8" s="9" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B9" s="47"/>
-      <c r="C9" s="50"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="48"/>
       <c r="D9" s="9" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B10" s="47"/>
-      <c r="C10" s="50"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="48"/>
       <c r="D10" s="9" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B11" s="48"/>
-      <c r="C11" s="51"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="49"/>
       <c r="D11" s="9" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B12" s="45">
+      <c r="B12" s="51">
         <v>3</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="50" t="s">
         <v>73</v>
       </c>
       <c r="D12" s="9" t="s">
@@ -3285,31 +3285,31 @@
       </c>
     </row>
     <row r="13" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B13" s="45"/>
-      <c r="C13" s="44"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="50"/>
       <c r="D13" s="9" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B14" s="45"/>
-      <c r="C14" s="44"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="50"/>
       <c r="D14" s="9" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B15" s="45"/>
-      <c r="C15" s="44"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="50"/>
       <c r="D15" s="9" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B16" s="45">
+      <c r="B16" s="51">
         <v>4</v>
       </c>
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="50" t="s">
         <v>75</v>
       </c>
       <c r="D16" s="9" t="s">
@@ -3317,31 +3317,31 @@
       </c>
     </row>
     <row r="17" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B17" s="45"/>
-      <c r="C17" s="44"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="50"/>
       <c r="D17" s="9" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B18" s="45"/>
-      <c r="C18" s="44"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="50"/>
       <c r="D18" s="9" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B19" s="45"/>
-      <c r="C19" s="44"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="50"/>
       <c r="D19" s="9" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B20" s="45">
+      <c r="B20" s="51">
         <v>5</v>
       </c>
-      <c r="C20" s="44" t="s">
+      <c r="C20" s="50" t="s">
         <v>74</v>
       </c>
       <c r="D20" s="9" t="s">
@@ -3349,24 +3349,24 @@
       </c>
     </row>
     <row r="21" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B21" s="45"/>
-      <c r="C21" s="44"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="50"/>
       <c r="D21" s="9" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B22" s="45"/>
-      <c r="C22" s="44"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="50"/>
       <c r="D22" s="9" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B23" s="45">
+      <c r="B23" s="51">
         <v>6</v>
       </c>
-      <c r="C23" s="44" t="s">
+      <c r="C23" s="50" t="s">
         <v>76</v>
       </c>
       <c r="D23" s="9" t="s">
@@ -3374,31 +3374,31 @@
       </c>
     </row>
     <row r="24" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B24" s="45"/>
-      <c r="C24" s="44"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="50"/>
       <c r="D24" s="9" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B25" s="45"/>
-      <c r="C25" s="44"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="50"/>
       <c r="D25" s="9" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B26" s="45"/>
-      <c r="C26" s="44"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="50"/>
       <c r="D26" s="9" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B27" s="45">
+      <c r="B27" s="51">
         <v>7</v>
       </c>
-      <c r="C27" s="44" t="s">
+      <c r="C27" s="50" t="s">
         <v>119</v>
       </c>
       <c r="D27" s="9" t="s">
@@ -3406,33 +3406,28 @@
       </c>
     </row>
     <row r="28" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B28" s="45"/>
-      <c r="C28" s="44"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="50"/>
       <c r="D28" s="9" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="29" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B29" s="45"/>
-      <c r="C29" s="44"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="50"/>
       <c r="D29" s="9" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="30" spans="2:4" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B30" s="45"/>
-      <c r="C30" s="44"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="50"/>
       <c r="D30" s="9" t="s">
         <v>123</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="C12:C15"/>
     <mergeCell ref="C16:C19"/>
     <mergeCell ref="C20:C22"/>
     <mergeCell ref="C23:C26"/>
@@ -3442,6 +3437,11 @@
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="B23:B26"/>
     <mergeCell ref="B27:B30"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="C12:C15"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3455,7 +3455,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomLeft" activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
